--- a/383-cp---vérification-qa/ig/CodeSystem-tddui-identifier.xlsx
+++ b/383-cp---vérification-qa/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T07:43:46+00:00</t>
+    <t>2025-10-24T09:56:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/CodeSystem-tddui-identifier.xlsx
+++ b/383-cp---vérification-qa/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T09:56:53+00:00</t>
+    <t>2025-10-27T08:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/CodeSystem-tddui-identifier.xlsx
+++ b/383-cp---vérification-qa/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T08:54:54+00:00</t>
+    <t>2025-10-27T14:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/CodeSystem-tddui-identifier.xlsx
+++ b/383-cp---vérification-qa/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T14:34:13+00:00</t>
+    <t>2025-10-28T10:21:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/CodeSystem-tddui-identifier.xlsx
+++ b/383-cp---vérification-qa/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T10:21:51+00:00</t>
+    <t>2025-10-28T15:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/CodeSystem-tddui-identifier.xlsx
+++ b/383-cp---vérification-qa/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:41:17+00:00</t>
+    <t>2025-10-29T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
